--- a/UnityBasic2/Assets/Data/Data.xlsx
+++ b/UnityBasic2/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65d17ee19915d4c0/Documents/GitHub/UnityBasic2/UnityBasic2/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6A6FF8-35F1-4324-AA73-8C42354610DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="960" windowWidth="17700" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="3" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Name_S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +38,102 @@
   </si>
   <si>
     <t>bbno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 후드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여신 니케</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_02</t>
+  </si>
+  <si>
+    <t>Char_03</t>
+  </si>
+  <si>
+    <t>Char_04</t>
+  </si>
+  <si>
+    <t>Char_05</t>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라푼젤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우화이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴리바이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하! 이제 전투하러 가보자고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니케</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘들어요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +154,20 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,14 +188,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{B0EA0E9A-970E-4E26-BE1C-068FB245A49A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,6 +216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -389,4 +513,224 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF07511-2869-4278-BAD5-155BD6280669}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10104</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10102</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AAE194-B731-463F-AE85-3A4524B17817}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>